--- a/docs/data/objectives.xlsx
+++ b/docs/data/objectives.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>taskforce</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>early_dev_estimand_nexus</t>
+  </si>
+  <si>
+    <t>This task force performs periodical literature reviews of principal stratum applied to treatment switching, focusing on the analysis of overall survival. It aims to evaluate and improve existing methods, develop new principal stratification models for treatment switching, e.g. through simulation studies to compare operating characteristics, relaxation/stress test of key assumptions, prior selection for Bayesian analysis, and software for implementation. 
+Communication of results is intended to happen through publication(s) for peer-reviewed journals, presentations/round-table discussions/trainings at various forums (JSM, DIA, FDA workshop, ISCB, …).</t>
   </si>
 </sst>
 </file>
@@ -407,7 +411,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,11 +436,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">

--- a/docs/data/objectives.xlsx
+++ b/docs/data/objectives.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>taskforce</t>
   </si>
@@ -82,6 +82,13 @@
   <si>
     <t>This task force performs periodical literature reviews of principal stratum applied to treatment switching, focusing on the analysis of overall survival. It aims to evaluate and improve existing methods, develop new principal stratification models for treatment switching, e.g. through simulation studies to compare operating characteristics, relaxation/stress test of key assumptions, prior selection for Bayesian analysis, and software for implementation. 
 Communication of results is intended to happen through publication(s) for peer-reviewed journals, presentations/round-table discussions/trainings at various forums (JSM, DIA, FDA workshop, ISCB, …).</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>Key issues of interest for this task force are: (1) Estimands for safety-focused studies (2) Safety estimands within the context of a conventional efficacy study (3) Implementing estimands principles in general safety reporting and analysis (including what to change and what to leave in place) (4) Implementing estimands principles in associated CRF and data standards. The mission of the group is up for discussion and I would appreciate your interest. 
+The envisioned output for the group would be white papers, one focused on study design and statistical methodological considerations in safety estimands, and one focused on more nuts-and-bolts implementation issues including recommendations for general safety reporting, visit schedule and withdrawal criteria issues, monitoring,  CRF considerations, data considerations and changes in data standards etc. In addition, the TF plans to involve itself in WG discussions with and recommendations to regulatory authorities, conference presentations, outreach webinars and workshops, etc.</t>
   </si>
 </sst>
 </file>
@@ -408,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +507,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/data/objectives.xlsx
+++ b/docs/data/objectives.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>taskforce</t>
   </si>
@@ -89,6 +89,15 @@
   <si>
     <t>Key issues of interest for this task force are: (1) Estimands for safety-focused studies (2) Safety estimands within the context of a conventional efficacy study (3) Implementing estimands principles in general safety reporting and analysis (including what to change and what to leave in place) (4) Implementing estimands principles in associated CRF and data standards. The mission of the group is up for discussion and I would appreciate your interest. 
 The envisioned output for the group would be white papers, one focused on study design and statistical methodological considerations in safety estimands, and one focused on more nuts-and-bolts implementation issues including recommendations for general safety reporting, visit schedule and withdrawal criteria issues, monitoring,  CRF considerations, data considerations and changes in data standards etc. In addition, the TF plans to involve itself in WG discussions with and recommendations to regulatory authorities, conference presentations, outreach webinars and workshops, etc.</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>objective_old</t>
+  </si>
+  <si>
+    <t>This task force has submitted a paper entitled _Quantification of Follow-up Time in Oncology Clinical Trials with a Time-to-Event Endpoint: Asking the Right Questions_, find the link on the [publications](publications.html) page. All questions initially asked have been discussed in this paper and the task force is therefore currently inactive.</t>
   </si>
 </sst>
 </file>
@@ -415,104 +424,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="208.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
